--- a/CENTRA/Parellel Data Entry CENTRA/Production Data_04Feb2025/Internal Transfer (Internal Movement)_Header.xlsx
+++ b/CENTRA/Parellel Data Entry CENTRA/Production Data_04Feb2025/Internal Transfer (Internal Movement)_Header.xlsx
@@ -11,7 +11,6 @@
     <sheet name="Header" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Line" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="HCM" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Sheet4" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Header!$A$1:$W$117</definedName>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7397" uniqueCount="685">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7452" uniqueCount="691">
   <si>
     <t xml:space="preserve">NAME</t>
   </si>
@@ -2072,16 +2071,34 @@
     <t xml:space="preserve">1IM12502-10195</t>
   </si>
   <si>
-    <t xml:space="preserve">vo</t>
-  </si>
-  <si>
     <t xml:space="preserve">1IM12502-10196</t>
   </si>
   <si>
     <t xml:space="preserve">1IM12502-10197</t>
   </si>
   <si>
-    <t xml:space="preserve">co</t>
+    <t xml:space="preserve">20-02-25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1IM12502-10198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1IM12502-10199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1IM12502-10120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26-02-25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1IM12502-10200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1IM12502-10201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1IM12502-10202</t>
   </si>
 </sst>
 </file>
@@ -2404,12 +2421,12 @@
   <sheetPr filterMode="true">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:W117"/>
+  <dimension ref="A1:W125"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="R1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
+      <selection pane="topLeft" activeCell="R1" activeCellId="0" sqref="R1"/>
+      <selection pane="bottomLeft" activeCell="V129" activeCellId="0" sqref="V129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3432,180 +3449,192 @@
         <v>45692.5088310185</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+    <row r="17" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="D17" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E17" s="0" t="s">
+      <c r="E17" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="F17" s="0" t="s">
+      <c r="F17" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G17" s="0" t="s">
+      <c r="G17" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="I17" s="6" t="n">
+      <c r="H17" s="8"/>
+      <c r="I17" s="10" t="n">
         <v>45692</v>
       </c>
-      <c r="J17" s="0" t="s">
+      <c r="J17" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="K17" s="0" t="s">
+      <c r="K17" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="L17" s="6" t="n">
+      <c r="L17" s="10" t="n">
         <v>45694</v>
       </c>
-      <c r="N17" s="0" t="s">
+      <c r="M17" s="8"/>
+      <c r="N17" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="Q17" s="0" t="s">
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="R17" s="0" t="s">
+      <c r="R17" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="S17" s="0" t="s">
+      <c r="S17" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="T17" s="0" t="s">
+      <c r="T17" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="U17" s="0" t="s">
+      <c r="U17" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="V17" s="7" t="n">
+      <c r="V17" s="11" t="n">
         <v>45692.4720601852</v>
       </c>
-      <c r="W17" s="7" t="n">
+      <c r="W17" s="11" t="n">
         <v>45693.3556712963</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="A18" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="D18" s="0" t="s">
+      <c r="D18" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E18" s="0" t="s">
+      <c r="E18" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="F18" s="0" t="s">
+      <c r="F18" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G18" s="0" t="s">
+      <c r="G18" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="I18" s="6" t="n">
+      <c r="H18" s="8"/>
+      <c r="I18" s="10" t="n">
         <v>45692</v>
       </c>
-      <c r="J18" s="0" t="s">
+      <c r="J18" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="K18" s="0" t="s">
+      <c r="K18" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="L18" s="6" t="n">
+      <c r="L18" s="10" t="n">
         <v>45694</v>
       </c>
-      <c r="N18" s="0" t="s">
+      <c r="M18" s="8"/>
+      <c r="N18" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="Q18" s="0" t="s">
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="R18" s="0" t="s">
+      <c r="R18" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="S18" s="0" t="s">
+      <c r="S18" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="T18" s="0" t="s">
+      <c r="T18" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="U18" s="0" t="s">
+      <c r="U18" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="V18" s="7" t="n">
+      <c r="V18" s="11" t="n">
         <v>45692.4765625</v>
       </c>
-      <c r="W18" s="7" t="n">
+      <c r="W18" s="11" t="n">
         <v>45692.6917476852</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="A19" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="D19" s="0" t="s">
+      <c r="D19" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E19" s="0" t="s">
+      <c r="E19" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="F19" s="0" t="s">
+      <c r="F19" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G19" s="0" t="s">
+      <c r="G19" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="I19" s="6" t="n">
+      <c r="H19" s="8"/>
+      <c r="I19" s="10" t="n">
         <v>45692</v>
       </c>
-      <c r="J19" s="0" t="s">
+      <c r="J19" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="K19" s="0" t="s">
+      <c r="K19" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="L19" s="6" t="n">
+      <c r="L19" s="10" t="n">
         <v>45694</v>
       </c>
-      <c r="N19" s="0" t="s">
+      <c r="M19" s="8"/>
+      <c r="N19" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="Q19" s="0" t="s">
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="R19" s="0" t="s">
+      <c r="R19" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="S19" s="0" t="s">
+      <c r="S19" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="T19" s="0" t="s">
+      <c r="T19" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="U19" s="0" t="s">
+      <c r="U19" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="V19" s="7" t="n">
+      <c r="V19" s="11" t="n">
         <v>45692.4821990741</v>
       </c>
-      <c r="W19" s="7" t="n">
+      <c r="W19" s="11" t="n">
         <v>45692.5088310185</v>
       </c>
     </row>
@@ -3732,58 +3761,63 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="A22" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="C22" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="D22" s="0" t="s">
+      <c r="D22" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F22" s="0" t="s">
+      <c r="E22" s="8"/>
+      <c r="F22" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="G22" s="0" t="s">
+      <c r="G22" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="I22" s="6" t="n">
+      <c r="H22" s="8"/>
+      <c r="I22" s="10" t="n">
         <v>45692</v>
       </c>
-      <c r="J22" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="K22" s="0" t="s">
+      <c r="J22" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="K22" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="L22" s="6" t="n">
+      <c r="L22" s="10" t="n">
         <v>45694</v>
       </c>
-      <c r="N22" s="0" t="s">
+      <c r="M22" s="8"/>
+      <c r="N22" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="Q22" s="0" t="s">
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="R22" s="0" t="s">
+      <c r="R22" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="S22" s="0" t="s">
+      <c r="S22" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="T22" s="0" t="s">
+      <c r="T22" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="U22" s="0" t="s">
+      <c r="U22" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="V22" s="7" t="n">
+      <c r="V22" s="11" t="n">
         <v>45692.5897106482</v>
       </c>
-      <c r="W22" s="7" t="n">
+      <c r="W22" s="11" t="n">
         <v>45692.7144907407</v>
       </c>
     </row>
@@ -3906,61 +3940,65 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+      <c r="A25" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B25" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="C25" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="D25" s="0" t="s">
+      <c r="D25" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E25" s="0" t="s">
+      <c r="E25" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="F25" s="0" t="s">
+      <c r="F25" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G25" s="0" t="s">
+      <c r="G25" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="I25" s="6" t="n">
+      <c r="H25" s="8"/>
+      <c r="I25" s="10" t="n">
         <v>45692</v>
       </c>
-      <c r="J25" s="0" t="s">
+      <c r="J25" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="K25" s="0" t="s">
+      <c r="K25" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="L25" s="6" t="n">
+      <c r="L25" s="10" t="n">
         <v>45694</v>
       </c>
-      <c r="N25" s="0" t="s">
+      <c r="M25" s="8"/>
+      <c r="N25" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="Q25" s="0" t="s">
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="R25" s="0" t="s">
+      <c r="R25" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="S25" s="0" t="s">
+      <c r="S25" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="T25" s="0" t="s">
+      <c r="T25" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="U25" s="0" t="s">
+      <c r="U25" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="V25" s="7" t="n">
+      <c r="V25" s="11" t="n">
         <v>45692.6114814815</v>
       </c>
-      <c r="W25" s="7" t="n">
+      <c r="W25" s="11" t="n">
         <v>45692.6918865741</v>
       </c>
     </row>
@@ -4135,62 +4173,66 @@
         <v>45692.6919791667</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="B29" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="0" t="s">
+      <c r="C29" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="D29" s="0" t="s">
+      <c r="D29" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E29" s="0" t="s">
+      <c r="E29" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="F29" s="0" t="s">
+      <c r="F29" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G29" s="0" t="s">
+      <c r="G29" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="I29" s="6" t="n">
+      <c r="H29" s="8"/>
+      <c r="I29" s="10" t="n">
         <v>45692</v>
       </c>
-      <c r="J29" s="0" t="s">
+      <c r="J29" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="K29" s="0" t="s">
+      <c r="K29" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="L29" s="6" t="n">
+      <c r="L29" s="10" t="n">
         <v>45694</v>
       </c>
-      <c r="N29" s="0" t="s">
+      <c r="M29" s="8"/>
+      <c r="N29" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="Q29" s="0" t="s">
+      <c r="O29" s="8"/>
+      <c r="P29" s="8"/>
+      <c r="Q29" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="R29" s="0" t="s">
+      <c r="R29" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="S29" s="0" t="s">
+      <c r="S29" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="T29" s="0" t="s">
+      <c r="T29" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="U29" s="0" t="s">
+      <c r="U29" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="V29" s="7" t="n">
+      <c r="V29" s="11" t="n">
         <v>45692.6476041667</v>
       </c>
-      <c r="W29" s="7" t="n">
+      <c r="W29" s="11" t="n">
         <v>45693.3557407407</v>
       </c>
     </row>
@@ -9149,6 +9191,7 @@
         <v>45692.9685185185</v>
       </c>
     </row>
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <autoFilter ref="A1:W117">
     <filterColumn colId="0">
@@ -9163,7 +9206,7 @@
     </filterColumn>
     <filterColumn colId="2">
       <filters>
-        <filter val="1IM12502-10073"/>
+        <filter val="1IM12502-10085"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -9185,8 +9228,8 @@
   </sheetPr>
   <dimension ref="A1:T563"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A47" activeCellId="0" sqref="A47"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A141" activeCellId="0" sqref="A141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12226,227 +12269,235 @@
         <v>45692.472662037</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
+    <row r="54" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B54" s="0" t="s">
+      <c r="B54" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="C54" s="12" t="n">
+      <c r="C54" s="14" t="n">
         <v>10</v>
       </c>
-      <c r="E54" s="12" t="n">
+      <c r="D54" s="8"/>
+      <c r="E54" s="14" t="n">
         <v>5949</v>
       </c>
-      <c r="G54" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="H54" s="0" t="s">
+      <c r="F54" s="8"/>
+      <c r="G54" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H54" s="8" t="s">
         <v>321</v>
       </c>
-      <c r="I54" s="0" t="s">
+      <c r="I54" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="J54" s="0" t="s">
+      <c r="J54" s="8" t="s">
         <v>322</v>
       </c>
-      <c r="K54" s="0" t="s">
+      <c r="K54" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="L54" s="12" t="n">
+      <c r="L54" s="14" t="n">
         <v>5949</v>
       </c>
-      <c r="M54" s="12" t="n">
+      <c r="M54" s="14" t="n">
         <v>5949</v>
       </c>
-      <c r="N54" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="O54" s="12" t="n">
+      <c r="N54" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="O54" s="14" t="n">
         <v>21</v>
       </c>
-      <c r="P54" s="12" t="n">
+      <c r="P54" s="14" t="n">
         <v>247</v>
       </c>
-      <c r="Q54" s="0" t="s">
+      <c r="Q54" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="R54" s="0" t="s">
+      <c r="R54" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="S54" s="7" t="n">
+      <c r="S54" s="11" t="n">
         <v>45692.4724768519</v>
       </c>
-      <c r="T54" s="7" t="n">
+      <c r="T54" s="11" t="n">
         <v>45692.4868981482</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
+      <c r="A55" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B55" s="0" t="s">
+      <c r="B55" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="C55" s="12" t="n">
+      <c r="C55" s="14" t="n">
         <v>10</v>
       </c>
-      <c r="E55" s="12" t="n">
+      <c r="D55" s="8"/>
+      <c r="E55" s="14" t="n">
         <v>75816</v>
       </c>
-      <c r="G55" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="H55" s="0" t="s">
+      <c r="F55" s="8"/>
+      <c r="G55" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H55" s="8" t="s">
         <v>373</v>
       </c>
-      <c r="I55" s="0" t="s">
+      <c r="I55" s="8" t="s">
         <v>365</v>
       </c>
-      <c r="J55" s="0" t="s">
+      <c r="J55" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="K55" s="0" t="s">
+      <c r="K55" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="L55" s="12" t="n">
+      <c r="L55" s="14" t="n">
         <v>75816</v>
       </c>
-      <c r="M55" s="12" t="n">
+      <c r="M55" s="14" t="n">
         <v>75816</v>
       </c>
-      <c r="N55" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="O55" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P55" s="12" t="n">
+      <c r="N55" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="O55" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P55" s="14" t="n">
         <v>3159</v>
       </c>
-      <c r="Q55" s="0" t="s">
+      <c r="Q55" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="R55" s="0" t="s">
+      <c r="R55" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="S55" s="7" t="n">
+      <c r="S55" s="11" t="n">
         <v>45692.477037037</v>
       </c>
-      <c r="T55" s="7" t="n">
+      <c r="T55" s="11" t="n">
         <v>45692.6612037037</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="s">
+      <c r="A56" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B56" s="0" t="s">
+      <c r="B56" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="C56" s="12" t="n">
+      <c r="C56" s="14" t="n">
         <v>20</v>
       </c>
-      <c r="E56" s="12" t="n">
+      <c r="D56" s="8"/>
+      <c r="E56" s="14" t="n">
         <v>51408</v>
       </c>
-      <c r="G56" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="H56" s="0" t="s">
+      <c r="F56" s="8"/>
+      <c r="G56" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H56" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="I56" s="0" t="s">
+      <c r="I56" s="8" t="s">
         <v>365</v>
       </c>
-      <c r="J56" s="0" t="s">
+      <c r="J56" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="K56" s="0" t="s">
+      <c r="K56" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="L56" s="12" t="n">
+      <c r="L56" s="14" t="n">
         <v>51408</v>
       </c>
-      <c r="M56" s="12" t="n">
+      <c r="M56" s="14" t="n">
         <v>51408</v>
       </c>
-      <c r="N56" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="O56" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P56" s="12" t="n">
+      <c r="N56" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="O56" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P56" s="14" t="n">
         <v>2142</v>
       </c>
-      <c r="Q56" s="0" t="s">
+      <c r="Q56" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="R56" s="0" t="s">
+      <c r="R56" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="S56" s="7" t="n">
+      <c r="S56" s="11" t="n">
         <v>45692.4774074074</v>
       </c>
-      <c r="T56" s="7" t="n">
+      <c r="T56" s="11" t="n">
         <v>45692.6612037037</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="s">
+      <c r="A57" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B57" s="0" t="s">
+      <c r="B57" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C57" s="12" t="n">
+      <c r="C57" s="14" t="n">
         <v>10</v>
       </c>
-      <c r="E57" s="12" t="n">
+      <c r="D57" s="8"/>
+      <c r="E57" s="14" t="n">
         <v>900</v>
       </c>
-      <c r="G57" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="H57" s="0" t="s">
+      <c r="F57" s="8"/>
+      <c r="G57" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H57" s="8" t="s">
         <v>330</v>
       </c>
-      <c r="I57" s="0" t="s">
+      <c r="I57" s="8" t="s">
         <v>378</v>
       </c>
-      <c r="J57" s="0" t="s">
+      <c r="J57" s="8" t="s">
         <v>357</v>
       </c>
-      <c r="K57" s="0" t="s">
+      <c r="K57" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="L57" s="12" t="n">
+      <c r="L57" s="14" t="n">
         <v>900</v>
       </c>
-      <c r="M57" s="12" t="n">
+      <c r="M57" s="14" t="n">
         <v>900</v>
       </c>
-      <c r="N57" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="O57" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P57" s="12" t="n">
+      <c r="N57" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="O57" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P57" s="14" t="n">
         <v>75</v>
       </c>
-      <c r="Q57" s="0" t="s">
+      <c r="Q57" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="R57" s="0" t="s">
+      <c r="R57" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="S57" s="7" t="n">
+      <c r="S57" s="11" t="n">
         <v>45692.4825810185</v>
       </c>
-      <c r="T57" s="7" t="n">
+      <c r="T57" s="11" t="n">
         <v>45692.4832291667</v>
       </c>
     </row>
@@ -12619,61 +12670,62 @@
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="s">
+      <c r="A61" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B61" s="0" t="s">
+      <c r="B61" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="C61" s="12" t="n">
+      <c r="C61" s="14" t="n">
         <v>10</v>
       </c>
-      <c r="E61" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F61" s="0" t="s">
+      <c r="D61" s="8"/>
+      <c r="E61" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F61" s="8" t="s">
         <v>383</v>
       </c>
-      <c r="G61" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="H61" s="0" t="s">
+      <c r="G61" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H61" s="8" t="s">
         <v>384</v>
       </c>
-      <c r="I61" s="0" t="s">
+      <c r="I61" s="8" t="s">
         <v>310</v>
       </c>
-      <c r="J61" s="0" t="s">
+      <c r="J61" s="8" t="s">
         <v>362</v>
       </c>
-      <c r="K61" s="0" t="s">
+      <c r="K61" s="8" t="s">
         <v>382</v>
       </c>
-      <c r="L61" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M61" s="12" t="n">
+      <c r="L61" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M61" s="14" t="n">
         <v>1800</v>
       </c>
-      <c r="N61" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="O61" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P61" s="12" t="n">
+      <c r="N61" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="O61" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P61" s="14" t="n">
         <v>60</v>
       </c>
-      <c r="Q61" s="0" t="s">
+      <c r="Q61" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="R61" s="0" t="s">
+      <c r="R61" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="S61" s="7" t="n">
+      <c r="S61" s="11" t="n">
         <v>45692.5901157407</v>
       </c>
-      <c r="T61" s="7" t="n">
+      <c r="T61" s="11" t="n">
         <v>45692.7144791667</v>
       </c>
     </row>
@@ -13574,226 +13626,234 @@
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="s">
+      <c r="A78" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B78" s="0" t="s">
+      <c r="B78" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="C78" s="12" t="n">
+      <c r="C78" s="14" t="n">
         <v>10</v>
       </c>
-      <c r="E78" s="12" t="n">
+      <c r="D78" s="8"/>
+      <c r="E78" s="14" t="n">
         <v>14</v>
       </c>
-      <c r="G78" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="H78" s="0" t="s">
+      <c r="F78" s="8"/>
+      <c r="G78" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H78" s="8" t="s">
         <v>321</v>
       </c>
-      <c r="I78" s="0" t="s">
+      <c r="I78" s="8" t="s">
         <v>311</v>
       </c>
-      <c r="J78" s="0" t="s">
+      <c r="J78" s="8" t="s">
         <v>345</v>
       </c>
-      <c r="K78" s="0" t="s">
+      <c r="K78" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="L78" s="12" t="n">
+      <c r="L78" s="14" t="n">
         <v>14</v>
       </c>
-      <c r="M78" s="12" t="n">
+      <c r="M78" s="14" t="n">
         <v>14</v>
       </c>
-      <c r="N78" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="O78" s="12" t="n">
+      <c r="N78" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="O78" s="14" t="n">
         <v>14</v>
       </c>
-      <c r="P78" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q78" s="0" t="s">
+      <c r="P78" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q78" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="R78" s="0" t="s">
+      <c r="R78" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="S78" s="7" t="n">
+      <c r="S78" s="11" t="n">
         <v>45692.6117361111</v>
       </c>
-      <c r="T78" s="7" t="n">
+      <c r="T78" s="11" t="n">
         <v>45692.6126851852</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="s">
+      <c r="A79" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B79" s="0" t="s">
+      <c r="B79" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="C79" s="12" t="n">
+      <c r="C79" s="14" t="n">
         <v>20</v>
       </c>
-      <c r="E79" s="12" t="n">
+      <c r="D79" s="8"/>
+      <c r="E79" s="14" t="n">
         <v>37</v>
       </c>
-      <c r="G79" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="H79" s="0" t="s">
+      <c r="F79" s="8"/>
+      <c r="G79" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H79" s="8" t="s">
         <v>321</v>
       </c>
-      <c r="I79" s="0" t="s">
+      <c r="I79" s="8" t="s">
         <v>386</v>
       </c>
-      <c r="J79" s="0" t="s">
+      <c r="J79" s="8" t="s">
         <v>345</v>
       </c>
-      <c r="K79" s="0" t="s">
+      <c r="K79" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="L79" s="12" t="n">
+      <c r="L79" s="14" t="n">
         <v>37</v>
       </c>
-      <c r="M79" s="12" t="n">
+      <c r="M79" s="14" t="n">
         <v>37</v>
       </c>
-      <c r="N79" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="O79" s="12" t="n">
+      <c r="N79" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="O79" s="14" t="n">
         <v>37</v>
       </c>
-      <c r="P79" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q79" s="0" t="s">
+      <c r="P79" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q79" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="R79" s="0" t="s">
+      <c r="R79" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="S79" s="7" t="n">
+      <c r="S79" s="11" t="n">
         <v>45692.6119097222</v>
       </c>
-      <c r="T79" s="7" t="n">
+      <c r="T79" s="11" t="n">
         <v>45692.6126851852</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="s">
+      <c r="A80" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B80" s="0" t="s">
+      <c r="B80" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="C80" s="12" t="n">
+      <c r="C80" s="14" t="n">
         <v>30</v>
       </c>
-      <c r="E80" s="12" t="n">
+      <c r="D80" s="8"/>
+      <c r="E80" s="14" t="n">
         <v>20</v>
       </c>
-      <c r="G80" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="H80" s="0" t="s">
+      <c r="F80" s="8"/>
+      <c r="G80" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H80" s="8" t="s">
         <v>321</v>
       </c>
-      <c r="I80" s="0" t="s">
+      <c r="I80" s="8" t="s">
         <v>387</v>
       </c>
-      <c r="J80" s="0" t="s">
+      <c r="J80" s="8" t="s">
         <v>345</v>
       </c>
-      <c r="K80" s="0" t="s">
+      <c r="K80" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="L80" s="12" t="n">
+      <c r="L80" s="14" t="n">
         <v>20</v>
       </c>
-      <c r="M80" s="12" t="n">
+      <c r="M80" s="14" t="n">
         <v>20</v>
       </c>
-      <c r="N80" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="O80" s="12" t="n">
+      <c r="N80" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="O80" s="14" t="n">
         <v>20</v>
       </c>
-      <c r="P80" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q80" s="0" t="s">
+      <c r="P80" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q80" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="R80" s="0" t="s">
+      <c r="R80" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="S80" s="7" t="n">
+      <c r="S80" s="11" t="n">
         <v>45692.6120717593</v>
       </c>
-      <c r="T80" s="7" t="n">
+      <c r="T80" s="11" t="n">
         <v>45692.6126851852</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="s">
+      <c r="A81" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B81" s="0" t="s">
+      <c r="B81" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="C81" s="12" t="n">
+      <c r="C81" s="14" t="n">
         <v>40</v>
       </c>
-      <c r="E81" s="12" t="n">
+      <c r="D81" s="8"/>
+      <c r="E81" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="G81" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="H81" s="0" t="s">
+      <c r="F81" s="8"/>
+      <c r="G81" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H81" s="8" t="s">
         <v>321</v>
       </c>
-      <c r="I81" s="0" t="s">
+      <c r="I81" s="8" t="s">
         <v>388</v>
       </c>
-      <c r="J81" s="0" t="s">
+      <c r="J81" s="8" t="s">
         <v>345</v>
       </c>
-      <c r="K81" s="0" t="s">
+      <c r="K81" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="L81" s="12" t="n">
+      <c r="L81" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="M81" s="12" t="n">
+      <c r="M81" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="N81" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="O81" s="12" t="n">
+      <c r="N81" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="O81" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="P81" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q81" s="0" t="s">
+      <c r="P81" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="R81" s="0" t="s">
+      <c r="R81" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="S81" s="7" t="n">
+      <c r="S81" s="11" t="n">
         <v>45692.6122106481</v>
       </c>
-      <c r="T81" s="7" t="n">
+      <c r="T81" s="11" t="n">
         <v>45692.6126851852</v>
       </c>
     </row>
@@ -17101,171 +17161,177 @@
         <v>45692.6444675926</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="0" t="s">
+    <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B141" s="0" t="s">
+      <c r="B141" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="C141" s="12" t="n">
+      <c r="C141" s="14" t="n">
         <v>10</v>
       </c>
-      <c r="E141" s="12" t="n">
+      <c r="D141" s="8"/>
+      <c r="E141" s="14" t="n">
         <v>47736</v>
       </c>
-      <c r="G141" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="H141" s="0" t="s">
+      <c r="F141" s="8"/>
+      <c r="G141" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H141" s="8" t="s">
         <v>373</v>
       </c>
-      <c r="I141" s="0" t="s">
+      <c r="I141" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="J141" s="0" t="s">
+      <c r="J141" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="K141" s="0" t="s">
+      <c r="K141" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="L141" s="12" t="n">
+      <c r="L141" s="14" t="n">
         <v>47736</v>
       </c>
-      <c r="M141" s="12" t="n">
+      <c r="M141" s="14" t="n">
         <v>47736</v>
       </c>
-      <c r="N141" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="O141" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P141" s="12" t="n">
+      <c r="N141" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="O141" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P141" s="14" t="n">
         <v>1989</v>
       </c>
-      <c r="Q141" s="0" t="s">
+      <c r="Q141" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="R141" s="0" t="s">
+      <c r="R141" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="S141" s="7" t="n">
+      <c r="S141" s="11" t="n">
         <v>45692.6481712963</v>
       </c>
-      <c r="T141" s="7" t="n">
+      <c r="T141" s="11" t="n">
         <v>45692.655474537</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="0" t="s">
+    <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B142" s="0" t="s">
+      <c r="B142" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="C142" s="12" t="n">
+      <c r="C142" s="14" t="n">
         <v>20</v>
       </c>
-      <c r="E142" s="12" t="n">
+      <c r="D142" s="8"/>
+      <c r="E142" s="14" t="n">
         <v>6552</v>
       </c>
-      <c r="G142" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="H142" s="0" t="s">
+      <c r="F142" s="8"/>
+      <c r="G142" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H142" s="8" t="s">
         <v>313</v>
       </c>
-      <c r="I142" s="0" t="s">
+      <c r="I142" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="J142" s="0" t="s">
+      <c r="J142" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="K142" s="0" t="s">
+      <c r="K142" s="8" t="s">
         <v>314</v>
       </c>
-      <c r="L142" s="12" t="n">
+      <c r="L142" s="14" t="n">
         <v>6552</v>
       </c>
-      <c r="M142" s="12" t="n">
+      <c r="M142" s="14" t="n">
         <v>6552</v>
       </c>
-      <c r="N142" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="O142" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P142" s="12" t="n">
+      <c r="N142" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="O142" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P142" s="14" t="n">
         <v>1092</v>
       </c>
-      <c r="Q142" s="0" t="s">
+      <c r="Q142" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="R142" s="0" t="s">
+      <c r="R142" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="S142" s="7" t="n">
+      <c r="S142" s="11" t="n">
         <v>45692.6484606481</v>
       </c>
-      <c r="T142" s="7" t="n">
+      <c r="T142" s="11" t="n">
         <v>45692.655474537</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="0" t="s">
+    <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B143" s="0" t="s">
+      <c r="B143" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="C143" s="12" t="n">
+      <c r="C143" s="14" t="n">
         <v>30</v>
       </c>
-      <c r="E143" s="12" t="n">
+      <c r="D143" s="8"/>
+      <c r="E143" s="14" t="n">
         <v>37440</v>
       </c>
-      <c r="G143" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="H143" s="0" t="s">
+      <c r="F143" s="8"/>
+      <c r="G143" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H143" s="8" t="s">
         <v>374</v>
       </c>
-      <c r="I143" s="0" t="s">
+      <c r="I143" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="J143" s="0" t="s">
+      <c r="J143" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="K143" s="0" t="s">
+      <c r="K143" s="8" t="s">
         <v>375</v>
       </c>
-      <c r="L143" s="12" t="n">
+      <c r="L143" s="14" t="n">
         <v>37440</v>
       </c>
-      <c r="M143" s="12" t="n">
+      <c r="M143" s="14" t="n">
         <v>37440</v>
       </c>
-      <c r="N143" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="O143" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P143" s="12" t="n">
+      <c r="N143" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="O143" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P143" s="14" t="n">
         <v>1560</v>
       </c>
-      <c r="Q143" s="0" t="s">
+      <c r="Q143" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="R143" s="0" t="s">
+      <c r="R143" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="S143" s="7" t="n">
+      <c r="S143" s="11" t="n">
         <v>45692.6489814815</v>
       </c>
-      <c r="T143" s="7" t="n">
+      <c r="T143" s="11" t="n">
         <v>45692.655474537</v>
       </c>
     </row>
@@ -40801,7 +40867,7 @@
     </filterColumn>
     <filterColumn colId="1">
       <filters>
-        <filter val="1IM12502-10073"/>
+        <filter val="1IM12502-10085"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -40821,10 +40887,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -40833,7 +40899,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="36.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="76.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="8.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="8.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.69"/>
@@ -41009,7 +41075,7 @@
         <v>674</v>
       </c>
       <c r="H7" s="21" t="s">
-        <v>681</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41020,7 +41086,7 @@
         <v>672</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D8" s="19" t="s">
         <v>31</v>
@@ -41046,7 +41112,7 @@
         <v>29</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D9" s="21" t="s">
         <v>31</v>
@@ -41061,7 +41127,186 @@
         <v>674</v>
       </c>
       <c r="H9" s="21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>683</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>672</v>
+      </c>
+      <c r="C11" s="19" t="s">
         <v>684</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>674</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>674</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>672</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>685</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>674</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>674</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>686</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>687</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>687</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>688</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>675</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>674</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>674</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>689</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>674</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>674</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>672</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>690</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>674</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>674</v>
+      </c>
+      <c r="H16" s="19" t="s">
+        <v>675</v>
       </c>
     </row>
   </sheetData>
@@ -41073,27 +41318,4 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
 </file>